--- a/Google maps automation/output_data.xlsx
+++ b/Google maps automation/output_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,436 +458,102 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Veena World Corporate Office</t>
+          <t>RadhaKrishna Wedding Decorators &amp; Caterers</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>022 2101 7979</t>
+          <t>092214 01413</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.veenaworld.com/</t>
+          <t>No website present</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['madhura@veenaworld.com', 'travel@veenaworld.com']</t>
+          <t>No Email</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Global Tours And Travels</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>070453 52221</t>
+          <t>093211 43633</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No website present</t>
+          <t>http://weandyouevents.com/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No Email</t>
+          <t>['8c4075d5481d476e945486754f783364@sentry.io', '8eb368c655b84e029ed79ad7a5c1718e@sentry.wixpress.com', 'eventsbyweandyou@gmail.com', '1eeb89147c984dc6bc3ffafd9e6cd089@sentry.wixpress.com', 'askweandyouevents@gmail.com', '605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SATYAM TOURS &amp; TRAVELS</t>
+          <t>Thought Factory</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>093210 74965</t>
+          <t>074000 66894</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://www.satyamtoursandtravel.com/</t>
+          <t>https://thoughtfactoryweb.com/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['support@satyamtoursandtravel.com']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>National Holidays</t>
+          <t>DIAN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>090040 97441</t>
+          <t>077383 77889</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://www.nationalholidays.co.in/</t>
+          <t>http://dianindia.com/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['support@satyamtoursandtravel.com']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Om Sai Tours And Travels - Travel Agency in Ghansoli</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>080 6924 5375</t>
+          <t>No number present</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.omsaitoursandtravel.in/</t>
+          <t>http://www.greenmattstudio.in/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Trip And Beyond LLP</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>099671 99996</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>http://tripandbeyond.com/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Go Travel &amp; Tours</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>099301 58157</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>No website present</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>No Email</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Gupta Travels</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>022 6124 7777</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>http://www.guptatravels.com/</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>['info@guptatravels.com']</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HS Tours And Travels</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>097024 79306</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.hstoursandtravels.com/</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Penguin On Holiday - Best Travel Agent</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>099302 64264</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>No website present</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>No Email</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Hajj Umrah Package MARHABA TOURS AND TRAVELS PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>099307 17145</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>http://marhabatours.in/</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Bombay Travel Service LLP</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>022 2300 8074</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>No website present</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>No Email</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Nita Tours and Travels-Mumbai Darshan Bus Services-Mumbai Darshan Bus Tour | Booking | Timing | Price | Locations</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>098702 78260</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>http://nitatoursandtravels.info/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Stimulus Tours and Travels Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>098190 01717</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://stimulustours.com/</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Manik Travels</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>022 2668 6199</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>http://maniktravels.com/</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Central Travel Agency</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>098194 92075</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://centraltravella.com/</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>022 2430 7484</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>No website present</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>No Email</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A A Tour N Travels</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>077770 78000</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://aatourntravels.com/</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>['8eb368c655b84e029ed79ad7a5c1718e@sentry.wixpress.com', '605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com', 'bookminibusticket@gmail.com']</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>YASH YATRA TOUR ORGANISER</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>022 2516 3000</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>http://www.yashyatra.com/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>holidays By Swastik</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>No number present</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>No website present</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>No Email</t>
         </is>
       </c>
     </row>
